--- a/WahoClient/wwwroot/ReturnOrderDetail.xlsx
+++ b/WahoClient/wwwroot/ReturnOrderDetail.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Mã hoàn đơn :</t>
   </si>
@@ -20,28 +20,31 @@
     <t>Tên khách hàng</t>
   </si>
   <si>
-    <t>Trần Đức</t>
+    <t>Phan Quan</t>
   </si>
   <si>
     <t>Người tạo đơn</t>
   </si>
   <si>
-    <t>Trần Đức 123</t>
+    <t>Trần Văn Đức</t>
   </si>
   <si>
     <t>Ngày tạo</t>
   </si>
   <si>
-    <t>27/3/2023 12:00:00 AM</t>
+    <t>20/6/2023 12:00:00 AM</t>
   </si>
   <si>
     <t>Số tiền cần trả khách</t>
   </si>
   <si>
-    <t>100000.00 đồng</t>
+    <t>1000000.00 đồng</t>
   </si>
   <si>
     <t>Số tiền đã trả khách</t>
+  </si>
+  <si>
+    <t>50000.00 đồng</t>
   </si>
   <si>
     <t>Tên sản phẩm</t>
@@ -50,16 +53,16 @@
     <t>Thương hiệu</t>
   </si>
   <si>
-    <t>Giá tại kho</t>
+    <t>Giá bán</t>
   </si>
   <si>
     <t>Số lượng</t>
   </si>
   <si>
-    <t>Áo Phông Thêu</t>
+    <t>Phông trơn</t>
   </si>
   <si>
-    <t>Local Brand</t>
+    <t>SWE</t>
   </si>
 </sst>
 </file>
@@ -116,7 +119,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>1</v>
@@ -152,32 +155,32 @@
         <v>9</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="0">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="D6" s="0">
         <v>1</v>
